--- a/biology/Botanique/Lemaneaceae/Lemaneaceae.xlsx
+++ b/biology/Botanique/Lemaneaceae/Lemaneaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lemaneaceae sont une famille d’algues rouges de l’ordre des Batrachospermales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Lemanea donné, par Bory de Saint-Vincent en hommage à Léman « naturaliste modeste, non moins instruit en botanique que dans les autre branches de la science »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Lemanea donné, par Bory de Saint-Vincent en hommage à Léman « naturaliste modeste, non moins instruit en botanique que dans les autre branches de la science ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'AlgaeBase                                           (4 octobre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'AlgaeBase                                           (4 octobre 2023) :
 Apona Adanson, 1763
 Baileya Kützing, 1857
 Chantransia A.P.de Candolle, 1801
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) Agardh, C.A. (1828). Species algarum rite cognitae, cum synonymis, differentiis specificis et descriptionibus succinctis. Voluminis secundi. Sectio prior.  pp. [i]-lxxvi, [i]-189. Gryphiae [Greifswald]: sumptibus Ernesti Mauriti [Ernst Mauritius].</t>
         </is>
